--- a/bots/crawl_ch/output/electronics_2022-08-05.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -942,36 +942,34 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4014528</t>
+          <t>6999781</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AAA/LR03 10 Stück</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-batterien-aaalr03-10-stueck/p/4014528</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
+          <t>24ST</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -980,12 +978,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.70/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -995,7 +993,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1010,39 +1008,41 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AAA/LR03 10 Stück 16.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6999781</t>
+          <t>4014528</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
+          <t>Varta Longlife Batterien AAA/LR03 10 Stück</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-batterien-aaalr03-10-stueck/p/4014528</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24ST</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>10ST</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>1.70/1ST</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AAA/LR03 10 Stück 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -1954,29 +1954,29 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2015,39 +2015,39 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2086,17 +2086,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3013,50 +3013,48 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5683906</t>
+          <t>6986541</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l</t>
+          <t>Duracell Batterie (CR2032, 4 Stück)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>5</v>
-      </c>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>19.95/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3066,7 +3064,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3076,58 +3074,60 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
+          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6986541</t>
+          <t>5683906</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück)</t>
+          <t>Prix Garantie Wasserkocher 1l</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/prix-garantie-wasserkocher-1l/p/5683906</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>19.95/1ST</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3147,17 +3147,17 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
+          <t>Prix Garantie Wasserkocher 1l 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3283,77 +3283,95 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5750424</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>4358323</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3361,23 +3379,25 @@
           <t>6ST</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>1.66/1ST</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3387,7 +3407,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3397,115 +3417,95 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4358323</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>119.00</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>5750424</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>satrap Vento HT2 Reisehaartrockner</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>119.00</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -3523,17 +3523,17 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -3885,92 +3885,110 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>6801740</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Duracell Batterien PLUS AA/LR6 12 Stück</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12ST</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2.49/1ST</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AA/LR6 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
-        <v>3</v>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3979,40 +3997,42 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -4021,7 +4041,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -4030,17 +4050,17 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -4091,100 +4111,80 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3494231</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>59.95</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>3494231</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Varta Electronics CR2025 1er Bli</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -4228,55 +4228,53 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4286,7 +4284,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4296,136 +4294,178 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6689619</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/philips-dampfstation-hi591931/p/6689619</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>69.50</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Philips Dampfstation HI5919/31 50% Aktion 69.50 Schweizer Franken statt 139.00 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -4435,12 +4475,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>34.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -4449,34 +4489,34 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -4486,12 +4526,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -4500,34 +4540,34 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6007534</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -4537,12 +4577,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -4551,41 +4591,37 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>6007534</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Trend USB-Stick 8 GB</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-8-gb/p/6007534</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
         <v>1</v>
       </c>
@@ -4594,90 +4630,74 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>3.74/1ST</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 8 GB 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>5.95/1ST</t>
+          <t>3.74/1ST</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4687,7 +4707,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4697,58 +4717,60 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6801740</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>5.95/1ST</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4758,7 +4780,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4768,17 +4790,17 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück 29.85 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4873,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
@@ -4922,148 +4944,148 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>29.85</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>2.49/1ST</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>16.95</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>4.95/1ST</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>6378875</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -5077,17 +5099,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Wilkinson</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -5097,7 +5119,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5107,120 +5129,102 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>6867383</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Krups Kaffeevollautomat EA815B</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Krups</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>349.50</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 29.95 Schweizer Franken</t>
+          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6867383</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/krups-kaffeevollautomat-ea815b/p/6867383</t>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Krups</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>349.50</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -5229,51 +5233,49 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Krups Kaffeevollautomat EA815B 50% Aktion 349.50 Schweizer Franken statt 699.00 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>6700107</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Miele</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>229.00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5282,34 +5284,34 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6700107</t>
+          <t>4881282</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W)</t>
+          <t>Miele FJM HyClean 3D (4 Stück)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-compact-c2-classic-mit-beutel-890-w/p/6700107</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -5324,7 +5326,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>229.00</t>
+          <t>17.95</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -5338,29 +5340,29 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>MIELE Compact C2 Classic (mit Beutel, 890 W) 41% Aktion 229.00 Schweizer Franken statt 389.00 Schweizer Franken</t>
+          <t>Miele FJM HyClean 3D (4 Stück) 17.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4881282</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück)</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/miele-fjm-hyclean-3d-4-stueck/p/4881282</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -5370,12 +5372,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Miele</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -5384,34 +5386,34 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Miele FJM HyClean 3D (4 Stück) 17.95 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6831289</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Rowenta Staubsauger RO2933</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -5421,7 +5423,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Rowenta</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5435,44 +5437,46 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6831289</t>
+          <t>6288875</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Rowenta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5491,37 +5495,37 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6288875</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5530,7 +5534,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>249.00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -5539,42 +5543,40 @@
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 32% Aktion 99.90 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>7</v>
-      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5583,7 +5585,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>249.00</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -5597,29 +5599,29 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 249.00 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>5831402</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>Satrap Mikrowelle Micro M2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -5648,29 +5650,29 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 49.95 Schweizer Franken</t>
+          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5831402</t>
+          <t>7016089</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2</t>
+          <t>Tefal Bügeleisen FV4961S0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -5680,12 +5682,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Tefal</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>69.90</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -5694,34 +5696,34 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7016089</t>
+          <t>6821480</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-buegeleisen-fv4961s0/p/7016089</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -5736,7 +5738,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>69.90</t>
+          <t>199.00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -5750,29 +5752,29 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Tefal Bügeleisen FV4961S0 30% Aktion 69.90 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>6821480</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium)</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/tefal-dampfbuegeleisen-express-protect-sv9202s0-75-bar-durilium/p/6821480</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -5782,12 +5784,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Tefal</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>199.00</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -5801,29 +5803,29 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Tefal Dampfbügeleisen Express Protect SV9202S0 (7.5 Bar, Durilium) 20% Aktion 199.00 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -5838,7 +5840,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -5852,29 +5854,29 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -5889,7 +5891,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -5903,35 +5905,37 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -5940,7 +5944,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>39.95</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -5954,87 +5958,105 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>29.95/1ST</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -6043,17 +6065,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>29.95/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6063,7 +6085,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -6073,34 +6095,34 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 29.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -6144,39 +6166,39 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>4589935</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Varta Longlife C 2er Bli</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -6190,12 +6212,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>3.48/1ST</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6205,7 +6227,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6215,39 +6237,39 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>4589935</t>
+          <t>3494067</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli</t>
+          <t>Varta Longlife Max Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-c-2er-bli/p/4589935</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -6261,12 +6283,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>3.48/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6276,7 +6298,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6286,39 +6308,39 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Varta Longlife C 2er Bli 6.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3494067</t>
+          <t>3591272</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli</t>
+          <t>Varta Longlife Max Power D 2er Bli</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-max-power-aaa-4er-bli/p/3494067</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -6337,7 +6359,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -6347,7 +6369,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6357,88 +6379,17 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power AAA 4er Bli 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-05 07:02:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>3591272</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Varta</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>4.98/1ST</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>2022-08-05 07:02:11</t>
+          <t>2022-08-05 20:58:51</t>
         </is>
       </c>
     </row>
